--- a/downloaded_files/EECS101_Lecture-35273.xlsx
+++ b/downloaded_files/EECS101_Lecture-35273.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -217,6 +217,15 @@
   </x:si>
   <x:si>
     <x:t>Yara Abdel Moneim Abdel samea Shouman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230326</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يسي رزق لمعي رزق</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yassa rizk lamey rizk</x:t>
   </x:si>
   <x:si>
     <x:t>1230134</x:t>
@@ -341,7 +350,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -641,7 +650,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1402,7 +1411,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.414405706</x:v>
+        <x:v>45924.4622883102</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1419,6 +1428,38 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45907.414405706</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS101_Lecture-35273.xlsx
+++ b/downloaded_files/EECS101_Lecture-35273.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -193,6 +193,15 @@
   </x:si>
   <x:si>
     <x:t>nour montasser magdy mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230335</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور هانى محمد جمال محمود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nour Hany</x:t>
   </x:si>
   <x:si>
     <x:t>1230309</x:t>
@@ -350,7 +359,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -650,7 +659,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1313,9 +1322,11 @@
       <x:c r="C20" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s"/>
+      <x:c r="D20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.419703206</x:v>
+        <x:v>45926.3557763889</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1338,16 +1349,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
+      <x:c r="D21" s="2" t="s"/>
       <x:c r="E21" s="3">
-        <x:v>45907.4210460995</x:v>
+        <x:v>45907.419703206</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1379,7 +1388,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6650952546</x:v>
+        <x:v>45907.4210460995</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1411,7 +1420,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45924.4622883102</x:v>
+        <x:v>45907.6650952546</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1443,7 +1452,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.414405706</x:v>
+        <x:v>45924.4622883102</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1460,6 +1469,38 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45907.414405706</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS101_Lecture-35273.xlsx
+++ b/downloaded_files/EECS101_Lecture-35273.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,15 +42,6 @@
     <x:t>alfred hany</x:t>
   </x:si>
   <x:si>
-    <x:t>1230165</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ايه احمد محمد احمد حسن خشبه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AYA AHMED</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230313</x:t>
   </x:si>
   <x:si>
@@ -168,15 +159,6 @@
     <x:t>Mohammad Amr Mohammad Ezzat Safwat</x:t>
   </x:si>
   <x:si>
-    <x:t>1230257</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مريم رامى محمد سعيد زكى رضوان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARIM</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230271</x:t>
   </x:si>
   <x:si>
@@ -184,15 +166,6 @@
   </x:si>
   <x:si>
     <x:t>Nada Serag Mohamed Esmat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230124</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نور منتصر مجدى محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>nour montasser magdy mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1230335</x:t>
@@ -359,7 +332,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -659,7 +632,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -782,7 +755,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4217196412</x:v>
+        <x:v>45912.1128035532</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -814,7 +787,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45912.1128035532</x:v>
+        <x:v>45907.415416088</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -846,7 +819,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.415416088</x:v>
+        <x:v>45913.721993206</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -878,7 +851,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45913.721993206</x:v>
+        <x:v>45907.4161412037</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -910,7 +883,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4161412037</x:v>
+        <x:v>45909.5387112616</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -942,7 +915,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.5387112616</x:v>
+        <x:v>45907.4178459144</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -974,7 +947,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4178459144</x:v>
+        <x:v>45907.4142193287</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1006,7 +979,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4142193287</x:v>
+        <x:v>45907.4200599884</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1038,7 +1011,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4200599884</x:v>
+        <x:v>45907.4148592245</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1070,7 +1043,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4148592245</x:v>
+        <x:v>45907.6646134259</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1102,7 +1075,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6646134259</x:v>
+        <x:v>45907.4200795949</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1134,7 +1107,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4200795949</x:v>
+        <x:v>45907.4203634606</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1166,7 +1139,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4203634606</x:v>
+        <x:v>45907.4204888079</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1198,7 +1171,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4204888079</x:v>
+        <x:v>45907.4195184375</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1230,7 +1203,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6655503472</x:v>
+        <x:v>45926.3557763889</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1258,11 +1231,9 @@
       <x:c r="C18" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>55</x:v>
-      </x:c>
+      <x:c r="D18" s="2" t="s"/>
       <x:c r="E18" s="3">
-        <x:v>45907.4195184375</x:v>
+        <x:v>45907.419703206</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1285,16 +1256,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="s">
+      <x:c r="D19" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.1125604167</x:v>
+        <x:v>45907.4210460995</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1317,16 +1288,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D20" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45926.3557763889</x:v>
+        <x:v>45907.6650952546</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1349,14 +1320,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="s">
+      <x:c r="D21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s"/>
       <x:c r="E21" s="3">
-        <x:v>45907.419703206</x:v>
+        <x:v>45924.4622883102</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1388,7 +1361,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4210460995</x:v>
+        <x:v>45907.414405706</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1405,102 +1378,6 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:20">
-      <x:c r="A23" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="E23" s="3">
-        <x:v>45907.6650952546</x:v>
-      </x:c>
-      <x:c r="F23" s="2" t="s"/>
-      <x:c r="G23" s="2" t="s"/>
-      <x:c r="H23" s="2" t="s"/>
-      <x:c r="I23" s="2" t="s"/>
-      <x:c r="J23" s="2" t="s"/>
-      <x:c r="K23" s="2" t="s"/>
-      <x:c r="L23" s="2" t="s"/>
-      <x:c r="M23" s="2" t="s"/>
-      <x:c r="N23" s="2" t="s"/>
-      <x:c r="O23" s="2" t="s"/>
-      <x:c r="P23" s="2" t="s"/>
-      <x:c r="Q23" s="2" t="s"/>
-      <x:c r="R23" s="2" t="s"/>
-      <x:c r="S23" s="2" t="s"/>
-      <x:c r="T23" s="2" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:20">
-      <x:c r="A24" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B24" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="E24" s="3">
-        <x:v>45924.4622883102</x:v>
-      </x:c>
-      <x:c r="F24" s="2" t="s"/>
-      <x:c r="G24" s="2" t="s"/>
-      <x:c r="H24" s="2" t="s"/>
-      <x:c r="I24" s="2" t="s"/>
-      <x:c r="J24" s="2" t="s"/>
-      <x:c r="K24" s="2" t="s"/>
-      <x:c r="L24" s="2" t="s"/>
-      <x:c r="M24" s="2" t="s"/>
-      <x:c r="N24" s="2" t="s"/>
-      <x:c r="O24" s="2" t="s"/>
-      <x:c r="P24" s="2" t="s"/>
-      <x:c r="Q24" s="2" t="s"/>
-      <x:c r="R24" s="2" t="s"/>
-      <x:c r="S24" s="2" t="s"/>
-      <x:c r="T24" s="2" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:20">
-      <x:c r="A25" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B25" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="E25" s="3">
-        <x:v>45907.414405706</x:v>
-      </x:c>
-      <x:c r="F25" s="2" t="s"/>
-      <x:c r="G25" s="2" t="s"/>
-      <x:c r="H25" s="2" t="s"/>
-      <x:c r="I25" s="2" t="s"/>
-      <x:c r="J25" s="2" t="s"/>
-      <x:c r="K25" s="2" t="s"/>
-      <x:c r="L25" s="2" t="s"/>
-      <x:c r="M25" s="2" t="s"/>
-      <x:c r="N25" s="2" t="s"/>
-      <x:c r="O25" s="2" t="s"/>
-      <x:c r="P25" s="2" t="s"/>
-      <x:c r="Q25" s="2" t="s"/>
-      <x:c r="R25" s="2" t="s"/>
-      <x:c r="S25" s="2" t="s"/>
-      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS101_Lecture-35273.xlsx
+++ b/downloaded_files/EECS101_Lecture-35273.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -199,15 +199,6 @@
   </x:si>
   <x:si>
     <x:t>Yara Abdel Moneim Abdel samea Shouman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230326</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يسي رزق لمعي رزق</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yassa rizk lamey rizk</x:t>
   </x:si>
   <x:si>
     <x:t>1230134</x:t>
@@ -332,7 +323,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -632,7 +623,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1329,7 +1320,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45924.4622883102</x:v>
+        <x:v>45907.414405706</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1346,38 +1337,6 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:20">
-      <x:c r="A22" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B22" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="E22" s="3">
-        <x:v>45907.414405706</x:v>
-      </x:c>
-      <x:c r="F22" s="2" t="s"/>
-      <x:c r="G22" s="2" t="s"/>
-      <x:c r="H22" s="2" t="s"/>
-      <x:c r="I22" s="2" t="s"/>
-      <x:c r="J22" s="2" t="s"/>
-      <x:c r="K22" s="2" t="s"/>
-      <x:c r="L22" s="2" t="s"/>
-      <x:c r="M22" s="2" t="s"/>
-      <x:c r="N22" s="2" t="s"/>
-      <x:c r="O22" s="2" t="s"/>
-      <x:c r="P22" s="2" t="s"/>
-      <x:c r="Q22" s="2" t="s"/>
-      <x:c r="R22" s="2" t="s"/>
-      <x:c r="S22" s="2" t="s"/>
-      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS101_Lecture-35273.xlsx
+++ b/downloaded_files/EECS101_Lecture-35273.xlsx
@@ -57,7 +57,7 @@
     <x:t>رنا احمد محمد سمير محمد فهمى الغرباوى</x:t>
   </x:si>
   <x:si>
-    <x:t>Rana ahmed mohamed samir mohamed fahmy elgharabawy</x:t>
+    <x:t>RANA AHMED MOHAMED SAMIR MOHAMED FAHMY EIGHARABAWY</x:t>
   </x:si>
   <x:si>
     <x:t>1230191</x:t>
@@ -75,7 +75,7 @@
     <x:t>عبدالرحمن عصام محمد اسماعيل</x:t>
   </x:si>
   <x:si>
-    <x:t>abdalrahman esam mohamed</x:t>
+    <x:t>Abdalrahman Esam Mohamed Ismail Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1230071</x:t>
@@ -93,7 +93,7 @@
     <x:t>عمر احمد رأفت احمد محمود</x:t>
   </x:si>
   <x:si>
-    <x:t>Omar Ahmed Raafat Ahmed</x:t>
+    <x:t>Omar Ahmed Raafat Ahmed Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1230215</x:t>
@@ -120,7 +120,7 @@
     <x:t>فرح مدحت محمد حسن شرشر</x:t>
   </x:si>
   <x:si>
-    <x:t>Farah medhat mohamed hassan sharshar</x:t>
+    <x:t>Farah Medhat Mohamed Hassan Sharshar</x:t>
   </x:si>
   <x:si>
     <x:t>1230225</x:t>
@@ -156,7 +156,7 @@
     <x:t>محمد عمرو محمد عزت صفوت ابو العطا</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammad Amr Mohammad Ezzat Safwat</x:t>
+    <x:t xml:space="preserve"> Mohammad Amr Mohammad Ezzat Safwat  Aboelattaa</x:t>
   </x:si>
   <x:si>
     <x:t>1230271</x:t>
@@ -632,7 +632,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="30.620625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="53.220625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="60.720625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
